--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-21.65526747597562</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.799195438431923</v>
+        <v>-9.072955490852415</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.922191615809509</v>
+        <v>-2.921471539153214</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.340902919698507</v>
+        <v>-5.638582609410833</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.77639736299013</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.063332648263748</v>
+        <v>-9.35112764933057</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.979627548376161</v>
+        <v>-2.941201639535695</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.262938256276029</v>
+        <v>-5.576485817032527</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-21.83151235485351</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.887388373727669</v>
+        <v>-10.17617838981046</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.85226562633185</v>
+        <v>-2.800249907141672</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.128833798268229</v>
+        <v>-5.44862638748023</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-21.79092522415155</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.66105182555379</v>
+        <v>-10.93606873904709</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.781907590860414</v>
+        <v>-2.72953837949351</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.351141100520738</v>
+        <v>-5.674324596168746</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-21.64565417813273</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.44690421132555</v>
+        <v>-11.7417035944127</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.631529400420348</v>
+        <v>-2.571134607411466</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.902140574563743</v>
+        <v>-5.214902597149736</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-21.39167476162938</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.12727191310153</v>
+        <v>-12.42904949360332</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.617847943950744</v>
+        <v>-2.546337785829237</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.012390856793917</v>
+        <v>-5.315163452311674</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-21.02875914443593</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.64338358342522</v>
+        <v>-12.95953651244722</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.493680543799814</v>
+        <v>-2.427930998928666</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.567802436894583</v>
+        <v>-4.852402916068025</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-20.56276291798066</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.60125573623442</v>
+        <v>-13.9325564596443</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.230328872138495</v>
+        <v>-2.185985242413568</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.476627639904804</v>
+        <v>-4.723627025316807</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-20.0039522413143</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.3547308570786</v>
+        <v>-14.69552350004873</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.208425449484287</v>
+        <v>-2.169122356353425</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.067755022157698</v>
+        <v>-4.323238219811141</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-19.36639443328813</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0305555297685</v>
+        <v>-15.36550900567122</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.043946848883682</v>
+        <v>-1.991721652848037</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.860791898835692</v>
+        <v>-4.099438395034675</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-18.66834169415297</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.67404221443933</v>
+        <v>-16.01903748662166</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.054682537213898</v>
+        <v>-2.028733592981597</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.354564917157512</v>
+        <v>-3.583195801682574</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-17.92255154134369</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.63421861254868</v>
+        <v>-16.98782862000086</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.87000251332851</v>
+        <v>-1.835334095403619</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.711929232171388</v>
+        <v>-2.943977207738141</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-17.15825462920245</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.25945462705815</v>
+        <v>-17.60007707009134</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.615304853845571</v>
+        <v>-1.576787298885213</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.331938234493131</v>
+        <v>-2.5932344146083</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-16.39334140224079</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.15559657196862</v>
+        <v>-18.50061802875662</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.466838139620397</v>
+        <v>-1.43317782901432</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.765486659743011</v>
+        <v>-2.021284072664654</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.64925360038547</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.04966993303009</v>
+        <v>-19.39560785101702</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.309979259273677</v>
+        <v>-1.272181780969614</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.357674518526085</v>
+        <v>-1.615501238388197</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.94241342406587</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.8401177170993</v>
+        <v>-20.19168532530817</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.074069054368615</v>
+        <v>-1.050489816950667</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.839559725867618</v>
+        <v>-1.105830981062643</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.28683165235819</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.79745308549199</v>
+        <v>-21.15069650846461</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9873456403450218</v>
+        <v>-0.9677071860824327</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4731847231447556</v>
+        <v>-0.7400713165733416</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.69344521684228</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.63241469922307</v>
+        <v>-21.98678406024007</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8331314051723304</v>
+        <v>-0.8293608219539134</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1005515996635483</v>
+        <v>-0.3682368235654795</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.16436994201226</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.27074301657427</v>
+        <v>-22.63366165134692</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5798608066991396</v>
+        <v>-0.5861320197603265</v>
       </c>
       <c r="G20" t="n">
-        <v>0.280447505333522</v>
+        <v>-0.004205343051286147</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.70930640399259</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.89871532237766</v>
+        <v>-23.25524491336355</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2794317333900516</v>
+        <v>-0.2962291579359861</v>
       </c>
       <c r="G21" t="n">
-        <v>0.615152227482249</v>
+        <v>0.3413005289418648</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.32580477979873</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.53628428616404</v>
+        <v>-23.90209631986471</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.04396666678160822</v>
+        <v>-0.08794371202696608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6110150597842635</v>
+        <v>0.4019571680075817</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.01373944725654</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.02327867496772</v>
+        <v>-24.36644102475221</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05845441834921482</v>
+        <v>0.001424347170656062</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8826410668415543</v>
+        <v>0.6506978296975352</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.76752877164093</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.38964058538774</v>
+        <v>-24.74767579120043</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0365509956950071</v>
+        <v>-0.02705141151009814</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8188422750938231</v>
+        <v>0.6227850400389753</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.58003637195801</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.67386138777877</v>
+        <v>-25.02701316463149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3213347671082326</v>
+        <v>0.2664387412928751</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7929064231643638</v>
+        <v>0.5999258792773215</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.44328851132596</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.68334021503618</v>
+        <v>-25.03112414772379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3350816850920449</v>
+        <v>0.2674337563088463</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6541934745562761</v>
+        <v>0.4564604247376873</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.34572473845616</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.6200258384936</v>
+        <v>-24.9908391318798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1486865695343909</v>
+        <v>0.07313088983478974</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6225493785878242</v>
+        <v>0.4478325971649898</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.28182012328407</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.73271128905233</v>
+        <v>-25.07514046987768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2842180885519391</v>
+        <v>0.2295315395820494</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3211514748684484</v>
+        <v>0.1499827075157218</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.24139066246146</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76177620136097</v>
+        <v>-25.12546728200127</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2618826199039545</v>
+        <v>0.1931611222877343</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2055333484731655</v>
+        <v>0.0536233586006179</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.22021024249501</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55782430769256</v>
+        <v>-24.91136885363053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091870918609033</v>
+        <v>0.05599306541497032</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01119120509058371</v>
+        <v>-0.1293415736125039</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.2126873956305</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.08249516072085</v>
+        <v>-24.44605531833274</v>
       </c>
       <c r="F31" t="n">
-        <v>0.115942720127234</v>
+        <v>0.05909594118845939</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4811055663639999</v>
+        <v>-0.6291926038067635</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.21467945739259</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.13532260268721</v>
+        <v>-24.4944575619386</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1664790090962966</v>
+        <v>0.1132980749532053</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5898371414645349</v>
+        <v>-0.7521293274905713</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.22385993840243</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73746061163</v>
+        <v>-24.0987950777588</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09691960409820601</v>
+        <v>0.04928980636000656</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.082565958912896</v>
+        <v>-1.254690464373068</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.23788275332129</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16619106943412</v>
+        <v>-23.5061196204167</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04477838955779524</v>
+        <v>-0.06122232192700317</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.163463298171921</v>
+        <v>-1.325991145649108</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.25705647520072</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.8049089725167</v>
+        <v>-23.14863429132337</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2431005930042617</v>
+        <v>-0.2554728191896928</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.208500819947459</v>
+        <v>-1.409048714877019</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.2817597282757</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08712346921906</v>
+        <v>-22.40743975054473</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3611407954252639</v>
+        <v>-0.3682891927768464</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.418056219232126</v>
+        <v>-1.59755169119219</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.3136514422585</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29143876401316</v>
+        <v>-21.60994830754667</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2974860190087918</v>
+        <v>-0.3082740765503741</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.532600776794387</v>
+        <v>-1.731865626045458</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.35425456486036</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91955190179393</v>
+        <v>-21.23031080204514</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3749400826204432</v>
+        <v>-0.3838952177641838</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.787180605551751</v>
+        <v>-1.991158683825843</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.40348218562063</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26365371402914</v>
+        <v>-20.57789516683625</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2146248343235075</v>
+        <v>-0.2510607131320312</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.94358125529901</v>
+        <v>-2.159172206193714</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.46049438027192</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.93436920525689</v>
+        <v>-20.22666795850126</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4873375025166615</v>
+        <v>-0.4993693288282078</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.163649773765584</v>
+        <v>-2.377787479044855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.52344644731035</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41570453587907</v>
+        <v>-19.67171142564618</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2037320383591914</v>
+        <v>-0.2342763808889383</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.010116338340662</v>
+        <v>-2.243120052014861</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-11.58885235888203</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.82555589298542</v>
+        <v>-19.10803541909851</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03304225853342452</v>
+        <v>0.001934946981483378</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.023954902444367</v>
+        <v>-2.290946234295686</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.65715961858458</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.93321071589906</v>
+        <v>-18.21153998201131</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0435291931096471</v>
+        <v>0.0169649106437849</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.915707742548975</v>
+        <v>-2.210899894721373</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.72603626762941</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.58783576693432</v>
+        <v>-17.87619373702334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07230607475576099</v>
+        <v>0.05065140585554607</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.108086040505298</v>
+        <v>-2.406839299050646</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.7968141814085</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.04911368960298</v>
+        <v>-17.33080767754556</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04235088585389175</v>
+        <v>0.02500358458860471</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.162602389538246</v>
+        <v>-2.464262139314456</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.86898749853424</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.64462699330785</v>
+        <v>-16.89729534585032</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08213839418989727</v>
+        <v>0.07962467204428587</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.103634657539112</v>
+        <v>-2.371359158349568</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.94237657716372</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.01575131860838</v>
+        <v>-16.25674133701603</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09571511223676721</v>
+        <v>0.07684910384183995</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.413228342837408</v>
+        <v>-2.706351911160813</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.01681617089906</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.35799402384007</v>
+        <v>-15.59774027347775</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08508416232928563</v>
+        <v>0.08225622491547281</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.342608461309137</v>
+        <v>-2.621029373541284</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.08853763160158</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.81429687142887</v>
+        <v>-15.02636599285914</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2148550680964744</v>
+        <v>0.1941299526980221</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.549676323053877</v>
+        <v>-2.855761271190591</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.16010954670852</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.14136559766699</v>
+        <v>-14.3453829528496</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3640287666751013</v>
+        <v>0.3269251804216496</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.502491663612296</v>
+        <v>-2.817243716230233</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.22751272438854</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.35546084268385</v>
+        <v>-13.54171194291025</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3504389563253896</v>
+        <v>0.3280249338603546</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.569786100218768</v>
+        <v>-2.912320019466847</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.29254301555664</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.7459486838873</v>
+        <v>-12.93797348966689</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4363768321784795</v>
+        <v>0.40710244302438</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.574001821733804</v>
+        <v>-2.894435933785049</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.35392919740968</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.11818585492937</v>
+        <v>-12.30338957092843</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4902516583721823</v>
+        <v>0.4628232839187661</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.606850409563695</v>
+        <v>-2.935283918651235</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.41034160069958</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.73318050526274</v>
+        <v>-11.92400081918089</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3860369277520428</v>
+        <v>0.3616328752550654</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.708106279741604</v>
+        <v>-3.063575394197309</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.46047469925652</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.27216124529703</v>
+        <v>-11.42120402084725</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1257357626528451</v>
+        <v>0.1278698080160464</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.192927346273562</v>
+        <v>-3.536246803692145</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.50015049870026</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.85981916729687</v>
+        <v>-11.0080502200709</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2145801297367982</v>
+        <v>0.18486060228608</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.26731781102025</v>
+        <v>-3.62306186383563</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.53102955093117</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.09479663534629</v>
+        <v>-10.24362993405104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1728287759745337</v>
+        <v>0.1392077422769812</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.622538171721962</v>
+        <v>-3.998706216970435</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.5483879419754</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.794118808283212</v>
+        <v>-9.952718964907882</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.005920434723552263</v>
+        <v>-0.03056014867168072</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.649233377216241</v>
+        <v>-4.020897670287161</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.55538835441963</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.22438106551982</v>
+        <v>-9.371669472489238</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08009599494658801</v>
+        <v>0.03829227197295667</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.9303251192281</v>
+        <v>-4.308483194508515</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.55195655181107</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.888707512960805</v>
+        <v>-9.034686689646051</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.05622106224146382</v>
+        <v>-0.08342686754657058</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.854127916689254</v>
+        <v>-4.222663149381001</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.53842815489764</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.352996665283058</v>
+        <v>-8.495126704932837</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0800228688077218</v>
+        <v>-0.1085640890026846</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.258810997527006</v>
+        <v>-4.615052557850372</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.51573146227465</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.867010383798186</v>
+        <v>-8.009336807990589</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.03455330103840717</v>
+        <v>-0.07007271864801</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.219311519853519</v>
+        <v>-4.605076223084978</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.48313274022986</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.389298437709285</v>
+        <v>-7.547741486699854</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.06114376810995282</v>
+        <v>-0.0839374673573979</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.219586458213195</v>
+        <v>-4.594117965606453</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.44375954380224</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.058128637327824</v>
+        <v>-7.210693242342458</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2297857210142263</v>
+        <v>-0.2465438686516357</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.445297759204553</v>
+        <v>-4.798960135868099</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.39763798571408</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.672416303307733</v>
+        <v>-6.835192904538912</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1829414614465304</v>
+        <v>-0.195483887568904</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.718010427397707</v>
+        <v>-5.062049961472584</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.3496280900834</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.42148922704321</v>
+        <v>-6.586936658054103</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2896960988179648</v>
+        <v>-0.3031288015335757</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.698738557614686</v>
+        <v>-5.036467601719852</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.30256266132739</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.27221079004185</v>
+        <v>-6.433219930389397</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3523558602184658</v>
+        <v>-0.3792212656496877</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.793160245709214</v>
+        <v>-5.129606244135891</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.25861385457108</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.997809214782113</v>
+        <v>-6.159630077905848</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3139692282865249</v>
+        <v>-0.3355584356725312</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.807129732841336</v>
+        <v>-5.131124951265531</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.21964355541625</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.857970328129637</v>
+        <v>-6.026350434977076</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.566218627138061</v>
+        <v>-0.6001669684066567</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.887686672226477</v>
+        <v>-5.190708021498226</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.18575074203032</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.651255958561625</v>
+        <v>-5.832099937714387</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5186411986112286</v>
+        <v>-0.5417752977325585</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.732045376044037</v>
+        <v>-5.031086665251902</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.15690609829243</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.530702033995011</v>
+        <v>-5.723407639522376</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5947991242415491</v>
+        <v>-0.6136782249393181</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.700689310738103</v>
+        <v>-4.977683161960502</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.13396154057324</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.536659031787996</v>
+        <v>-5.734824127600362</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.706018236882012</v>
+        <v>-0.7314303966978023</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.590569951536345</v>
+        <v>-4.842727704267989</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.11672445300507</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.582023861134576</v>
+        <v>-5.782650309881187</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7410401469836293</v>
+        <v>-0.7663475683766857</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.385033889224087</v>
+        <v>-4.646827576847242</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.10589386241533</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.824323109826401</v>
+        <v>-6.014357885574055</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6343640634292452</v>
+        <v>-0.6523267029280935</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.25997621247992</v>
+        <v>-4.506674474926564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.10004102966586</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.036745723433406</v>
+        <v>-6.220483101514191</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9678250168080083</v>
+        <v>-0.9929491459612806</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.087904076231115</v>
+        <v>-4.33681493785801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.09734028069546</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.538927183533493</v>
+        <v>-6.705186337320573</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8955816897273637</v>
+        <v>-0.9196060654419311</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.923831337018604</v>
+        <v>-4.15856323466791</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.09535481724297</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.996215137189301</v>
+        <v>-7.155208062899223</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9559110212220375</v>
+        <v>-0.9782726744757057</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.849872918265693</v>
+        <v>-4.077430233957734</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.08852509735757</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.570901770426867</v>
+        <v>-7.742332383836429</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.014459799530236</v>
+        <v>-1.037122575749264</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.47234327352168</v>
+        <v>-3.707323924924979</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.07754641195441</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.99242155271908</v>
+        <v>-8.16361650467749</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9770550903114251</v>
+        <v>-1.011003431580021</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.272868947425141</v>
+        <v>-3.531415743943548</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.05811593508429</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.467397207514059</v>
+        <v>-8.631142639155527</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.182460229595265</v>
+        <v>-1.197110516475157</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.899083701293862</v>
+        <v>-3.162788865131909</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.02997739532672</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.392721895458733</v>
+        <v>-9.534563904445994</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.1020211209357</v>
+        <v>-1.13539340087926</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.888622951323323</v>
+        <v>-3.157787605446369</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.99078560845738</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19543716729064</v>
+        <v>-10.31910705993359</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.194649163540912</v>
+        <v>-1.221619307394868</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.700368728762144</v>
+        <v>-2.961861293419939</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.93835264612397</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02486073691967</v>
+        <v>-11.13318645063211</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.295669372267671</v>
+        <v>-1.337394541424252</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.338536755125361</v>
+        <v>-2.610031839154234</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.87099104450142</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2306487363398</v>
+        <v>-12.33030734557102</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.380284925533746</v>
+        <v>-1.415503220177989</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.211083186961158</v>
+        <v>-2.466684215340175</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.78390617653901</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.10585608900635</v>
+        <v>-13.20959949672418</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.469875553879678</v>
+        <v>-1.497303928333094</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.871992543360452</v>
+        <v>-2.132882862087528</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.6800004293286</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29077495769677</v>
+        <v>-14.3722090813723</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.657592992024346</v>
+        <v>-1.678946537959201</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.624181435172261</v>
+        <v>-1.879494432888761</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.55661158217242</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.37441177160359</v>
+        <v>-15.44292379237434</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.709215942129272</v>
+        <v>-1.726667981817293</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.212127387834617</v>
+        <v>-1.467060708768707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.4166239712373</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.75786232058594</v>
+        <v>-16.82844292520569</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.704227774746574</v>
+        <v>-1.704463436197726</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8920860448686229</v>
+        <v>-1.153735717160518</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.26081247537307</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.43260351549386</v>
+        <v>-18.4837289580908</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.945440362302535</v>
+        <v>-1.942429132648938</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6889982431877681</v>
+        <v>-0.9575868359857784</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.09036098092377</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.02511195625289</v>
+        <v>-20.06533151058267</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.156881053196412</v>
+        <v>-2.153254485309253</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3858852477961262</v>
+        <v>-0.6623815915105391</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.90710140571839</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.85189406406177</v>
+        <v>-21.85298072519763</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.350201996957339</v>
+        <v>-2.341220677207914</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5295863637869115</v>
+        <v>-0.8046294618858928</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.71069112896211</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.5526496647162</v>
+        <v>-23.5349226866685</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.440054471360105</v>
+        <v>-2.435419796154134</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.348375800154581</v>
+        <v>-0.6124999176835627</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.5069964746139</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.6227653131414</v>
+        <v>-25.61727963825071</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.621867280923154</v>
+        <v>-2.591388399907616</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.34851981548584</v>
+        <v>-0.6046445359785271</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.2972033148548</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.8575166698013</v>
+        <v>-27.83857210758933</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.495565835409023</v>
+        <v>-2.461525848020536</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4746903379715541</v>
+        <v>-0.7252377374536659</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.08787573866376</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.14538349909009</v>
+        <v>-30.11944764716063</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.98492993102706</v>
+        <v>-2.935899256884796</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8373340343845245</v>
+        <v>-1.078834652603003</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.882339293085824</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.32796202892572</v>
+        <v>-32.31731798671539</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.052342198359108</v>
+        <v>-2.995325219483391</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.077996745221133</v>
+        <v>-1.325127053661554</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.683613733055699</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.55141472823321</v>
+        <v>-34.53939599422451</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.416151109724991</v>
+        <v>-3.33581673948816</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.290838312519074</v>
+        <v>-1.520582042785683</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.493228113327694</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.07037379498131</v>
+        <v>-37.05666615390602</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.686415517286743</v>
+        <v>-3.596798704335128</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.703533882695963</v>
+        <v>-1.937048196180989</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.310859141150667</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.60343327188995</v>
+        <v>-39.56595000885408</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.617288158282429</v>
+        <v>-3.534034204511893</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.169920986826771</v>
+        <v>-2.395318072549927</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.136380059326685</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.17282388918437</v>
+        <v>-42.13015607422319</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.792986862418393</v>
+        <v>-3.708829539751778</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.518621380713303</v>
+        <v>-2.725558319429625</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.970393126466233</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.45314955203632</v>
+        <v>-44.42089011783431</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.054021196476727</v>
+        <v>-3.955174310021695</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.101713272375257</v>
+        <v>-3.293122739921292</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.810233288245986</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.79392237710853</v>
+        <v>-46.75842914410461</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.207004755182297</v>
+        <v>-4.102685286139423</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.416923555592653</v>
+        <v>-3.60864723840689</v>
       </c>
     </row>
   </sheetData>
